--- a/doc/saas-关系模型.xlsx
+++ b/doc/saas-关系模型.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bianxueming/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitdownload\velen-saas\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A928BDB5-9647-E64F-A4A7-B6D49D29E24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33200" yWindow="-1080" windowWidth="28240" windowHeight="17040" xr2:uid="{40550DC4-B2A8-864D-91D9-2B1A7BB5BD53}"/>
+    <workbookView xWindow="33195" yWindow="-1080" windowWidth="28245" windowHeight="17040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修改履历" sheetId="1" r:id="rId1"/>
+    <sheet name="分组概览关系" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,12 +48,20 @@
     <t>修订内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>刘志豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组概览关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,15 +125,15 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,14 +148,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>265730</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="95250"/>
+          <a:ext cx="7761905" cy="6133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E127924B-8496-C645-BDE4-2776207201D8}" name="表2" displayName="表2" ref="C8:F12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="C8:F12" xr:uid="{9925AD36-5F85-1843-AE75-3A4D2A9D35B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C8:F12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="C8:F12"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{04CB8785-8DDF-9C45-98F9-7010A59F52F7}" name="版本"/>
-    <tableColumn id="2" xr3:uid="{610F3CD6-C53B-5249-BC4C-9F5DBD4960C4}" name="修订时间"/>
-    <tableColumn id="3" xr3:uid="{8A8F3BCD-2B4F-614B-B76D-328735E0D416}" name="修订人"/>
-    <tableColumn id="4" xr3:uid="{584F8127-3C91-1744-BD34-F8FA1F37022C}" name="修订内容" dataDxfId="1"/>
+    <tableColumn id="1" name="版本"/>
+    <tableColumn id="2" name="修订时间"/>
+    <tableColumn id="3" name="修订人"/>
+    <tableColumn id="4" name="修订内容" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -449,14 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF33C5C-9EC9-5946-882F-AD293C1AE3A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
@@ -464,10 +515,10 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,23 +532,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="F9" s="1"/>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>5.22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>